--- a/cosimulation/static/demo/0_pv_and_load_forecast/cyder_inputs.xlsx
+++ b/cosimulation/static/demo/0_pv_and_load_forecast/cyder_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonathan\Desktop\CyDER\cosimulation\static\demo\1_ev_impact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonathan\Desktop\CyDER\cosimulation\static\demo\0_pv_and_load_forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>feeder_name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>load_forecast</t>
-  </si>
-  <si>
-    <t>static/demo/1_ev_impact/ev_forecast.xlsx</t>
   </si>
   <si>
     <t>BU0001.sxst</t>
@@ -402,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -457,7 +454,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -469,19 +466,19 @@
         <v>42903.25</v>
       </c>
       <c r="E2" s="2">
-        <v>42903.875</v>
+        <v>42903.895833333336</v>
       </c>
       <c r="F2">
         <v>1800</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>

--- a/cosimulation/static/demo/0_pv_and_load_forecast/cyder_inputs.xlsx
+++ b/cosimulation/static/demo/0_pv_and_load_forecast/cyder_inputs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>feeder_name</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>BU0001.sxst</t>
+  </si>
+  <si>
+    <t>/static/demo/0_pv_and_load_forecast/pv_forecast.xlsx</t>
+  </si>
+  <si>
+    <t>/static/demo/0_pv_and_load_forecast/load_forecast.xlsx</t>
   </si>
 </sst>
 </file>
@@ -399,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -410,9 +416,9 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -460,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>42903.25</v>
@@ -474,11 +480,11 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
